--- a/StudentManagement_API/RejectedHistoryExport.xlsx
+++ b/StudentManagement_API/RejectedHistoryExport.xlsx
@@ -41,19 +41,19 @@
     <t>RejectedBy</t>
   </si>
   <si>
-    <t>John 1 A. Doe</t>
+    <t>Pradip A. Dey</t>
   </si>
   <si>
     <t>ADM001</t>
   </si>
   <si>
-    <t>Grade 1</t>
+    <t>Grade 3</t>
   </si>
   <si>
     <t>Section A</t>
   </si>
   <si>
-    <t>23-02-2025</t>
+    <t>26-03-2025</t>
   </si>
   <si>
     <t>Father</t>
@@ -62,7 +62,7 @@
     <t>Michael B. Doe</t>
   </si>
   <si>
-    <t>Leena Pathak was not available</t>
+    <t>Student requires early pickup due to health concerns</t>
   </si>
   <si>
     <t>Jane Doe</t>
@@ -124,7 +124,7 @@
     <col min="5" max="5" width="13.095917701721191" customWidth="1"/>
     <col min="6" max="6" width="12.210966110229492" customWidth="1"/>
     <col min="7" max="7" width="13.922554969787598" customWidth="1"/>
-    <col min="8" max="8" width="28.075639724731445" customWidth="1"/>
+    <col min="8" max="8" width="47.102603912353516" customWidth="1"/>
     <col min="9" max="9" width="10.529047012329102" customWidth="1"/>
   </cols>
   <sheetData>
